--- a/biology/Biologie cellulaire et moléculaire/Pipette_à_piston/Pipette_à_piston.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Pipette_à_piston/Pipette_à_piston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pipette_%C3%A0_piston</t>
+          <t>Pipette_à_piston</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pipette à piston, aussi appelée pipette automatique, pipeteur automatique ou micropipette, est un système de pipetage de précision utilisé entre autres en biotechnologies, chimie analytique et en biologie moléculaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pipette_%C3%A0_piston</t>
+          <t>Pipette_à_piston</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Système
-Ce sont des systèmes actionnant des pistons. La modification de la longueur de la colonne d'air à l'intérieur de l'appareil permet d'aspirer ou de chasser des volumes de liquides avec une grande précision.
+          <t>Système</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des systèmes actionnant des pistons. La modification de la longueur de la colonne d'air à l'intérieur de l'appareil permet d'aspirer ou de chasser des volumes de liquides avec une grande précision.
 Une molette permet à l'utilisateur de régler le volume à prélever, à l'aide d'un indicateur à chiffres.
 Il existe généralement une gamme de modèles selon le volume à pipeter et la résolution du prélèvement à effectuer :
 P5000 : permet de pipeter jusqu'à 5 ml de solution ;
@@ -524,8 +541,43 @@
 P20 : permet de pipeter de 2 à 20 µl ;
 P10 : permet de pipeter de 0,5 à 10 µl ;
 P2 : permet de pipeter de 0,1 à 2 µl.
-Embouts
-Il est nécessaire d'avoir des embouts (cônes de pipettes) qui soient adaptés à la micropipette utilisée. Ces embouts doivent être le plus effilés possible, notamment pour les petits volumes, afin de mieux voir le volume prélevé. Ils sont généralement disposés dans des boites stérilisables, munies d'un plateau percé, où l'on les met.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipette_à_piston</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Embouts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nécessaire d'avoir des embouts (cônes de pipettes) qui soient adaptés à la micropipette utilisée. Ces embouts doivent être le plus effilés possible, notamment pour les petits volumes, afin de mieux voir le volume prélevé. Ils sont généralement disposés dans des boites stérilisables, munies d'un plateau percé, où l'on les met.
 Il existe des embouts munis d'un filtre de coton. Ils permettent d'éviter la contamination pouvant provenir du plastique de la pipette ou de la colonne d'air.
 Il existe aussi des boîtes en paquet stérile déjà remplies d'embouts. Ces boîtes sont jetables.
 On prélève un embout simplement en appliquant le bout de la micropipette dans le col de l'embout. En appuyant un peu, l'embout s'enfonce et peut être retiré de la boîte.
@@ -534,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pipette_à_piston</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On commence par régler le volume à prélever sans dépasser la portée de la pipette : c'est-à-dire la tranche de volumes pour laquelle elle est conçue.
 Par exemple, une P20 (2 µl à 20 µl) ne doit pas être réglée à moins de 2 µl ou à plus de 20 µl. C'est aussi entre ces deux valeurs que l'exactitude est la meilleure.
@@ -573,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pipette_à_piston</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Réglage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une petite clé permet de serrer ou desserrer une vis modifiant la longueur de la colonne d'air et permet de régler la micropipette.
 Les pipettes à piston doivent être régulièrement étalonnées. Pour cela, on réalise plusieurs mesures par pesée du volume d'eau purifiée prélevé par une pipette, à une température donnée.
@@ -611,44 +667,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Stérilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart du temps, les pipettes à piston peuvent être stérilisées avec la technique d'autoclavage, courante en biologie.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pipette_%C3%A0_piston</t>
+          <t>Pipette_à_piston</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,10 +688,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Stérilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart du temps, les pipettes à piston peuvent être stérilisées avec la technique d'autoclavage, courante en biologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pipette_à_piston</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Constructeurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Biohit
 Eppendorf
@@ -678,44 +738,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Micropipettes multicanaux</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces pipettes permettent d'effectuer 8 ou 12 prélèvements d'un coup pour remplir plus rapidement une plaque 96 puits ou une plaque de microdilutions. La solution à distribuer sur la plaque est versée dans une petite auge en plastique stérile jetable.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pipette_%C3%A0_piston</t>
+          <t>Pipette_à_piston</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,12 +759,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Micropipette électronique</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le manche de la micropipette contient un moteur électrique qui effectue le pistonnage. Des boutons permettent d'effectuer une programmation à l'aide d'un écran à cristaux liquides. Il est possible alors de distribuer par exemple 100 µL de liquide autant de fois que possible pour compléter les microtubes d'une microplaque. Un gros bouton permet de lancer le programme entré de pipetage. Le repose-pipette, relié au secteur, sert de base de rechargement de la batterie de l'appareil.
+          <t>Micropipettes multicanaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces pipettes permettent d'effectuer 8 ou 12 prélèvements d'un coup pour remplir plus rapidement une plaque 96 puits ou une plaque de microdilutions. La solution à distribuer sur la plaque est versée dans une petite auge en plastique stérile jetable.
 </t>
         </is>
       </c>
@@ -746,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pipette_%C3%A0_piston</t>
+          <t>Pipette_à_piston</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,10 +792,45 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Micropipette électronique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manche de la micropipette contient un moteur électrique qui effectue le pistonnage. Des boutons permettent d'effectuer une programmation à l'aide d'un écran à cristaux liquides. Il est possible alors de distribuer par exemple 100 µL de liquide autant de fois que possible pour compléter les microtubes d'une microplaque. Un gros bouton permet de lancer le programme entré de pipetage. Le repose-pipette, relié au secteur, sert de base de rechargement de la batterie de l'appareil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pipette_à_piston</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pipette_%C3%A0_piston</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Automatisation du pipetage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Des systèmes assurant un pipetage automatisé sont développés.
 Dans les automates utilisés en biochimie clinique, le pipetage est assuré par des systèmes intégrés dans l'automate.
